--- a/data/session1.xlsx
+++ b/data/session1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karl/work/X2bids-main/Behave/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/work/behave/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C355CBE-B47B-1A45-A5AE-74A1EC8F7F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7210E5-004D-0844-B38E-8E655044111E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1062,198 +1062,6 @@
     <t>ses</t>
   </si>
   <si>
-    <t>PSS-01</t>
-  </si>
-  <si>
-    <t>PSS-02</t>
-  </si>
-  <si>
-    <t>PSS-03</t>
-  </si>
-  <si>
-    <t>PSS-04</t>
-  </si>
-  <si>
-    <t>PSS-05</t>
-  </si>
-  <si>
-    <t>PSS-06</t>
-  </si>
-  <si>
-    <t>PSS-07</t>
-  </si>
-  <si>
-    <t>PSS-08</t>
-  </si>
-  <si>
-    <t>PSS-09</t>
-  </si>
-  <si>
-    <t>PSS-10</t>
-  </si>
-  <si>
-    <t>FSozU-01</t>
-  </si>
-  <si>
-    <t>FSozU-02</t>
-  </si>
-  <si>
-    <t>FSozU-03</t>
-  </si>
-  <si>
-    <t>FSozU-04</t>
-  </si>
-  <si>
-    <t>FSozU-05</t>
-  </si>
-  <si>
-    <t>FSozU-06</t>
-  </si>
-  <si>
-    <t>FSozU-07</t>
-  </si>
-  <si>
-    <t>FSozU-08</t>
-  </si>
-  <si>
-    <t>FSozU-09</t>
-  </si>
-  <si>
-    <t>FSozU-10</t>
-  </si>
-  <si>
-    <t>FSozU-11</t>
-  </si>
-  <si>
-    <t>FSozU-12</t>
-  </si>
-  <si>
-    <t>FSozU-13</t>
-  </si>
-  <si>
-    <t>FSozU-14</t>
-  </si>
-  <si>
-    <t>FSozU-15</t>
-  </si>
-  <si>
-    <t>FSozU-16</t>
-  </si>
-  <si>
-    <t>FSozU-17</t>
-  </si>
-  <si>
-    <t>FSozU-18</t>
-  </si>
-  <si>
-    <t>FSozU-19</t>
-  </si>
-  <si>
-    <t>FSozU-20</t>
-  </si>
-  <si>
-    <t>FSozU-21</t>
-  </si>
-  <si>
-    <t>FSozU-22</t>
-  </si>
-  <si>
-    <t>FSozU-23</t>
-  </si>
-  <si>
-    <t>FSozU-24</t>
-  </si>
-  <si>
-    <t>FSozU-25</t>
-  </si>
-  <si>
-    <t>FSozU-26</t>
-  </si>
-  <si>
-    <t>FSozU-27</t>
-  </si>
-  <si>
-    <t>FSozU-28</t>
-  </si>
-  <si>
-    <t>FSozU-29</t>
-  </si>
-  <si>
-    <t>FSozU-30</t>
-  </si>
-  <si>
-    <t>FSozU-31</t>
-  </si>
-  <si>
-    <t>FSozU-32</t>
-  </si>
-  <si>
-    <t>FSozU-33</t>
-  </si>
-  <si>
-    <t>FSozU-34</t>
-  </si>
-  <si>
-    <t>FSozU-35</t>
-  </si>
-  <si>
-    <t>FSozU-36</t>
-  </si>
-  <si>
-    <t>FSozU-37</t>
-  </si>
-  <si>
-    <t>FSozU-38</t>
-  </si>
-  <si>
-    <t>FSozU-39</t>
-  </si>
-  <si>
-    <t>FSozU-40</t>
-  </si>
-  <si>
-    <t>FSozU-41</t>
-  </si>
-  <si>
-    <t>FSozU-42</t>
-  </si>
-  <si>
-    <t>FSozU-43</t>
-  </si>
-  <si>
-    <t>FSozU-44</t>
-  </si>
-  <si>
-    <t>FSozU-45</t>
-  </si>
-  <si>
-    <t>FSozU-46</t>
-  </si>
-  <si>
-    <t>FSozU-47</t>
-  </si>
-  <si>
-    <t>FSozU-48</t>
-  </si>
-  <si>
-    <t>FSozU-49</t>
-  </si>
-  <si>
-    <t>FSozU-50</t>
-  </si>
-  <si>
-    <t>FSozU-51</t>
-  </si>
-  <si>
-    <t>FSozU-52</t>
-  </si>
-  <si>
-    <t>FSozU-53</t>
-  </si>
-  <si>
-    <t>FSozU-54</t>
-  </si>
-  <si>
     <t>STAI-01</t>
   </si>
   <si>
@@ -1552,6 +1360,198 @@
   </si>
   <si>
     <t>ch dem fortgehen, emotiol</t>
+  </si>
+  <si>
+    <t>FSOZU01</t>
+  </si>
+  <si>
+    <t>FSOZU02</t>
+  </si>
+  <si>
+    <t>FSOZU03</t>
+  </si>
+  <si>
+    <t>FSOZU04</t>
+  </si>
+  <si>
+    <t>FSOZU05</t>
+  </si>
+  <si>
+    <t>FSOZU06</t>
+  </si>
+  <si>
+    <t>FSOZU07</t>
+  </si>
+  <si>
+    <t>FSOZU08</t>
+  </si>
+  <si>
+    <t>FSOZU09</t>
+  </si>
+  <si>
+    <t>FSOZU10</t>
+  </si>
+  <si>
+    <t>FSOZU11</t>
+  </si>
+  <si>
+    <t>FSOZU12</t>
+  </si>
+  <si>
+    <t>FSOZU13</t>
+  </si>
+  <si>
+    <t>FSOZU14</t>
+  </si>
+  <si>
+    <t>FSOZU15</t>
+  </si>
+  <si>
+    <t>FSOZU16</t>
+  </si>
+  <si>
+    <t>FSOZU17</t>
+  </si>
+  <si>
+    <t>FSOZU18</t>
+  </si>
+  <si>
+    <t>FSOZU19</t>
+  </si>
+  <si>
+    <t>FSOZU20</t>
+  </si>
+  <si>
+    <t>FSOZU21</t>
+  </si>
+  <si>
+    <t>FSOZU22</t>
+  </si>
+  <si>
+    <t>FSOZU23</t>
+  </si>
+  <si>
+    <t>FSOZU24</t>
+  </si>
+  <si>
+    <t>FSOZU25</t>
+  </si>
+  <si>
+    <t>FSOZU26</t>
+  </si>
+  <si>
+    <t>FSOZU27</t>
+  </si>
+  <si>
+    <t>FSOZU28</t>
+  </si>
+  <si>
+    <t>FSOZU29</t>
+  </si>
+  <si>
+    <t>FSOZU30</t>
+  </si>
+  <si>
+    <t>FSOZU31</t>
+  </si>
+  <si>
+    <t>FSOZU32</t>
+  </si>
+  <si>
+    <t>FSOZU33</t>
+  </si>
+  <si>
+    <t>FSOZU34</t>
+  </si>
+  <si>
+    <t>FSOZU35</t>
+  </si>
+  <si>
+    <t>FSOZU36</t>
+  </si>
+  <si>
+    <t>FSOZU37</t>
+  </si>
+  <si>
+    <t>FSOZU38</t>
+  </si>
+  <si>
+    <t>FSOZU39</t>
+  </si>
+  <si>
+    <t>FSOZU40</t>
+  </si>
+  <si>
+    <t>FSOZU41</t>
+  </si>
+  <si>
+    <t>FSOZU42</t>
+  </si>
+  <si>
+    <t>FSOZU43</t>
+  </si>
+  <si>
+    <t>FSOZU44</t>
+  </si>
+  <si>
+    <t>FSOZU45</t>
+  </si>
+  <si>
+    <t>FSOZU46</t>
+  </si>
+  <si>
+    <t>FSOZU47</t>
+  </si>
+  <si>
+    <t>FSOZU48</t>
+  </si>
+  <si>
+    <t>FSOZU49</t>
+  </si>
+  <si>
+    <t>FSOZU50</t>
+  </si>
+  <si>
+    <t>FSOZU51</t>
+  </si>
+  <si>
+    <t>FSOZU52</t>
+  </si>
+  <si>
+    <t>FSOZU53</t>
+  </si>
+  <si>
+    <t>FSOZU54</t>
+  </si>
+  <si>
+    <t>PSS01</t>
+  </si>
+  <si>
+    <t>PSS02</t>
+  </si>
+  <si>
+    <t>PSS03</t>
+  </si>
+  <si>
+    <t>PSS04</t>
+  </si>
+  <si>
+    <t>PSS05</t>
+  </si>
+  <si>
+    <t>PSS06</t>
+  </si>
+  <si>
+    <t>PSS07</t>
+  </si>
+  <si>
+    <t>PSS08</t>
+  </si>
+  <si>
+    <t>PSS09</t>
+  </si>
+  <si>
+    <t>PSS10</t>
   </si>
 </sst>
 </file>
@@ -1943,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EZ178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1970,466 +1970,466 @@
         <v>339</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="DM1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:156" x14ac:dyDescent="0.2">
@@ -15185,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="ET29" s="3" t="s">
-        <v>495</v>
+        <v>431</v>
       </c>
       <c r="EU29" s="3">
         <v>2</v>
@@ -16117,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="ET31" t="s">
-        <v>444</v>
+        <v>380</v>
       </c>
       <c r="EU31">
         <v>2</v>
@@ -19149,7 +19149,7 @@
         <v>3</v>
       </c>
       <c r="EG38" s="2" t="s">
-        <v>496</v>
+        <v>432</v>
       </c>
       <c r="EH38" s="2" t="s">
         <v>225</v>
@@ -19188,7 +19188,7 @@
         <v>0</v>
       </c>
       <c r="ET38" s="2" t="s">
-        <v>497</v>
+        <v>433</v>
       </c>
       <c r="EU38" s="2">
         <v>2</v>
@@ -26303,7 +26303,7 @@
         <v>0</v>
       </c>
       <c r="ET55" s="3" t="s">
-        <v>498</v>
+        <v>434</v>
       </c>
       <c r="EU55" s="3">
         <v>3</v>
@@ -32126,7 +32126,7 @@
         <v>0</v>
       </c>
       <c r="ET68" s="2" t="s">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="EU68" s="2">
         <v>1</v>
@@ -37556,7 +37556,7 @@
         <v>0</v>
       </c>
       <c r="ET80" s="2" t="s">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="EU80" s="2">
         <v>2</v>
@@ -38975,7 +38975,7 @@
         <v>0</v>
       </c>
       <c r="ET83" s="3" t="s">
-        <v>501</v>
+        <v>437</v>
       </c>
       <c r="EU83" s="3">
         <v>1</v>
@@ -41867,7 +41867,7 @@
         <v>1</v>
       </c>
       <c r="ET91" s="3" t="s">
-        <v>502</v>
+        <v>438</v>
       </c>
       <c r="EU91" s="3">
         <v>2</v>
@@ -45041,7 +45041,7 @@
         <v>0</v>
       </c>
       <c r="ET99" s="3" t="s">
-        <v>503</v>
+        <v>439</v>
       </c>
       <c r="EU99" s="3">
         <v>1</v>

--- a/data/session1.xlsx
+++ b/data/session1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/work/behave/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karl/work/X2bids-main/Behave/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7210E5-004D-0844-B38E-8E655044111E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C355CBE-B47B-1A45-A5AE-74A1EC8F7F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1062,6 +1062,198 @@
     <t>ses</t>
   </si>
   <si>
+    <t>PSS-01</t>
+  </si>
+  <si>
+    <t>PSS-02</t>
+  </si>
+  <si>
+    <t>PSS-03</t>
+  </si>
+  <si>
+    <t>PSS-04</t>
+  </si>
+  <si>
+    <t>PSS-05</t>
+  </si>
+  <si>
+    <t>PSS-06</t>
+  </si>
+  <si>
+    <t>PSS-07</t>
+  </si>
+  <si>
+    <t>PSS-08</t>
+  </si>
+  <si>
+    <t>PSS-09</t>
+  </si>
+  <si>
+    <t>PSS-10</t>
+  </si>
+  <si>
+    <t>FSozU-01</t>
+  </si>
+  <si>
+    <t>FSozU-02</t>
+  </si>
+  <si>
+    <t>FSozU-03</t>
+  </si>
+  <si>
+    <t>FSozU-04</t>
+  </si>
+  <si>
+    <t>FSozU-05</t>
+  </si>
+  <si>
+    <t>FSozU-06</t>
+  </si>
+  <si>
+    <t>FSozU-07</t>
+  </si>
+  <si>
+    <t>FSozU-08</t>
+  </si>
+  <si>
+    <t>FSozU-09</t>
+  </si>
+  <si>
+    <t>FSozU-10</t>
+  </si>
+  <si>
+    <t>FSozU-11</t>
+  </si>
+  <si>
+    <t>FSozU-12</t>
+  </si>
+  <si>
+    <t>FSozU-13</t>
+  </si>
+  <si>
+    <t>FSozU-14</t>
+  </si>
+  <si>
+    <t>FSozU-15</t>
+  </si>
+  <si>
+    <t>FSozU-16</t>
+  </si>
+  <si>
+    <t>FSozU-17</t>
+  </si>
+  <si>
+    <t>FSozU-18</t>
+  </si>
+  <si>
+    <t>FSozU-19</t>
+  </si>
+  <si>
+    <t>FSozU-20</t>
+  </si>
+  <si>
+    <t>FSozU-21</t>
+  </si>
+  <si>
+    <t>FSozU-22</t>
+  </si>
+  <si>
+    <t>FSozU-23</t>
+  </si>
+  <si>
+    <t>FSozU-24</t>
+  </si>
+  <si>
+    <t>FSozU-25</t>
+  </si>
+  <si>
+    <t>FSozU-26</t>
+  </si>
+  <si>
+    <t>FSozU-27</t>
+  </si>
+  <si>
+    <t>FSozU-28</t>
+  </si>
+  <si>
+    <t>FSozU-29</t>
+  </si>
+  <si>
+    <t>FSozU-30</t>
+  </si>
+  <si>
+    <t>FSozU-31</t>
+  </si>
+  <si>
+    <t>FSozU-32</t>
+  </si>
+  <si>
+    <t>FSozU-33</t>
+  </si>
+  <si>
+    <t>FSozU-34</t>
+  </si>
+  <si>
+    <t>FSozU-35</t>
+  </si>
+  <si>
+    <t>FSozU-36</t>
+  </si>
+  <si>
+    <t>FSozU-37</t>
+  </si>
+  <si>
+    <t>FSozU-38</t>
+  </si>
+  <si>
+    <t>FSozU-39</t>
+  </si>
+  <si>
+    <t>FSozU-40</t>
+  </si>
+  <si>
+    <t>FSozU-41</t>
+  </si>
+  <si>
+    <t>FSozU-42</t>
+  </si>
+  <si>
+    <t>FSozU-43</t>
+  </si>
+  <si>
+    <t>FSozU-44</t>
+  </si>
+  <si>
+    <t>FSozU-45</t>
+  </si>
+  <si>
+    <t>FSozU-46</t>
+  </si>
+  <si>
+    <t>FSozU-47</t>
+  </si>
+  <si>
+    <t>FSozU-48</t>
+  </si>
+  <si>
+    <t>FSozU-49</t>
+  </si>
+  <si>
+    <t>FSozU-50</t>
+  </si>
+  <si>
+    <t>FSozU-51</t>
+  </si>
+  <si>
+    <t>FSozU-52</t>
+  </si>
+  <si>
+    <t>FSozU-53</t>
+  </si>
+  <si>
+    <t>FSozU-54</t>
+  </si>
+  <si>
     <t>STAI-01</t>
   </si>
   <si>
@@ -1360,198 +1552,6 @@
   </si>
   <si>
     <t>ch dem fortgehen, emotiol</t>
-  </si>
-  <si>
-    <t>FSOZU01</t>
-  </si>
-  <si>
-    <t>FSOZU02</t>
-  </si>
-  <si>
-    <t>FSOZU03</t>
-  </si>
-  <si>
-    <t>FSOZU04</t>
-  </si>
-  <si>
-    <t>FSOZU05</t>
-  </si>
-  <si>
-    <t>FSOZU06</t>
-  </si>
-  <si>
-    <t>FSOZU07</t>
-  </si>
-  <si>
-    <t>FSOZU08</t>
-  </si>
-  <si>
-    <t>FSOZU09</t>
-  </si>
-  <si>
-    <t>FSOZU10</t>
-  </si>
-  <si>
-    <t>FSOZU11</t>
-  </si>
-  <si>
-    <t>FSOZU12</t>
-  </si>
-  <si>
-    <t>FSOZU13</t>
-  </si>
-  <si>
-    <t>FSOZU14</t>
-  </si>
-  <si>
-    <t>FSOZU15</t>
-  </si>
-  <si>
-    <t>FSOZU16</t>
-  </si>
-  <si>
-    <t>FSOZU17</t>
-  </si>
-  <si>
-    <t>FSOZU18</t>
-  </si>
-  <si>
-    <t>FSOZU19</t>
-  </si>
-  <si>
-    <t>FSOZU20</t>
-  </si>
-  <si>
-    <t>FSOZU21</t>
-  </si>
-  <si>
-    <t>FSOZU22</t>
-  </si>
-  <si>
-    <t>FSOZU23</t>
-  </si>
-  <si>
-    <t>FSOZU24</t>
-  </si>
-  <si>
-    <t>FSOZU25</t>
-  </si>
-  <si>
-    <t>FSOZU26</t>
-  </si>
-  <si>
-    <t>FSOZU27</t>
-  </si>
-  <si>
-    <t>FSOZU28</t>
-  </si>
-  <si>
-    <t>FSOZU29</t>
-  </si>
-  <si>
-    <t>FSOZU30</t>
-  </si>
-  <si>
-    <t>FSOZU31</t>
-  </si>
-  <si>
-    <t>FSOZU32</t>
-  </si>
-  <si>
-    <t>FSOZU33</t>
-  </si>
-  <si>
-    <t>FSOZU34</t>
-  </si>
-  <si>
-    <t>FSOZU35</t>
-  </si>
-  <si>
-    <t>FSOZU36</t>
-  </si>
-  <si>
-    <t>FSOZU37</t>
-  </si>
-  <si>
-    <t>FSOZU38</t>
-  </si>
-  <si>
-    <t>FSOZU39</t>
-  </si>
-  <si>
-    <t>FSOZU40</t>
-  </si>
-  <si>
-    <t>FSOZU41</t>
-  </si>
-  <si>
-    <t>FSOZU42</t>
-  </si>
-  <si>
-    <t>FSOZU43</t>
-  </si>
-  <si>
-    <t>FSOZU44</t>
-  </si>
-  <si>
-    <t>FSOZU45</t>
-  </si>
-  <si>
-    <t>FSOZU46</t>
-  </si>
-  <si>
-    <t>FSOZU47</t>
-  </si>
-  <si>
-    <t>FSOZU48</t>
-  </si>
-  <si>
-    <t>FSOZU49</t>
-  </si>
-  <si>
-    <t>FSOZU50</t>
-  </si>
-  <si>
-    <t>FSOZU51</t>
-  </si>
-  <si>
-    <t>FSOZU52</t>
-  </si>
-  <si>
-    <t>FSOZU53</t>
-  </si>
-  <si>
-    <t>FSOZU54</t>
-  </si>
-  <si>
-    <t>PSS01</t>
-  </si>
-  <si>
-    <t>PSS02</t>
-  </si>
-  <si>
-    <t>PSS03</t>
-  </si>
-  <si>
-    <t>PSS04</t>
-  </si>
-  <si>
-    <t>PSS05</t>
-  </si>
-  <si>
-    <t>PSS06</t>
-  </si>
-  <si>
-    <t>PSS07</t>
-  </si>
-  <si>
-    <t>PSS08</t>
-  </si>
-  <si>
-    <t>PSS09</t>
-  </si>
-  <si>
-    <t>PSS10</t>
   </si>
 </sst>
 </file>
@@ -1943,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EZ178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1970,466 +1970,466 @@
         <v>339</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="DM1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="EW1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:156" x14ac:dyDescent="0.2">
@@ -15185,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="ET29" s="3" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="EU29" s="3">
         <v>2</v>
@@ -16117,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="ET31" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="EU31">
         <v>2</v>
@@ -19149,7 +19149,7 @@
         <v>3</v>
       </c>
       <c r="EG38" s="2" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="EH38" s="2" t="s">
         <v>225</v>
@@ -19188,7 +19188,7 @@
         <v>0</v>
       </c>
       <c r="ET38" s="2" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="EU38" s="2">
         <v>2</v>
@@ -26303,7 +26303,7 @@
         <v>0</v>
       </c>
       <c r="ET55" s="3" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="EU55" s="3">
         <v>3</v>
@@ -32126,7 +32126,7 @@
         <v>0</v>
       </c>
       <c r="ET68" s="2" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="EU68" s="2">
         <v>1</v>
@@ -37556,7 +37556,7 @@
         <v>0</v>
       </c>
       <c r="ET80" s="2" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="EU80" s="2">
         <v>2</v>
@@ -38975,7 +38975,7 @@
         <v>0</v>
       </c>
       <c r="ET83" s="3" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="EU83" s="3">
         <v>1</v>
@@ -41867,7 +41867,7 @@
         <v>1</v>
       </c>
       <c r="ET91" s="3" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
       <c r="EU91" s="3">
         <v>2</v>
@@ -45041,7 +45041,7 @@
         <v>0</v>
       </c>
       <c r="ET99" s="3" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="EU99" s="3">
         <v>1</v>
